--- a/Post/Index/data/Sample - Air Temperature.xlsx
+++ b/Post/Index/data/Sample - Air Temperature.xlsx
@@ -453,70 +453,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45605.24791666667</v>
+        <v>45693.82777777778</v>
       </c>
       <c r="B2" t="n">
-        <v>33.5</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45614.86527777778</v>
+        <v>45695.51388888889</v>
       </c>
       <c r="B3" t="n">
-        <v>25.9</v>
+        <v>26.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45616.73611111111</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
+        <v>45700.33194444444</v>
+      </c>
+      <c r="B4" t="n">
+        <v>27.05</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45628.55763888889</v>
+        <v>45704.49930555555</v>
       </c>
       <c r="B5" t="n">
-        <v>27.7</v>
+        <v>27.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45635.53541666667</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
+        <v>45709.9125</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25.41</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45647.38958333333</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
+        <v>45710.32013888889</v>
+      </c>
+      <c r="B7" t="n">
+        <v>27.99</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45666.65138888889</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
+        <v>45711.50347222222</v>
+      </c>
+      <c r="B8" t="n">
+        <v>26.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45682.08472222222</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
+        <v>45711.75069444445</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25.43</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45685.61111111111</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>45715.97152777778</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45696.00972222222</v>
+        <v>45716.13888888889</v>
       </c>
       <c r="B11" t="n">
-        <v>26.02</v>
+        <v>30.31</v>
       </c>
     </row>
   </sheetData>

--- a/Post/Index/data/Sample - Air Temperature.xlsx
+++ b/Post/Index/data/Sample - Air Temperature.xlsx
@@ -453,82 +453,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45693.82777777778</v>
+        <v>45689.95347222222</v>
       </c>
       <c r="B2" t="n">
-        <v>26.88</v>
+        <v>25.69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45695.51388888889</v>
+        <v>45693.47569444445</v>
       </c>
       <c r="B3" t="n">
-        <v>26.21</v>
+        <v>29.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45700.33194444444</v>
+        <v>45693.99722222222</v>
       </c>
       <c r="B4" t="n">
-        <v>27.05</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45704.49930555555</v>
+        <v>45695.46805555555</v>
       </c>
       <c r="B5" t="n">
-        <v>27.91</v>
+        <v>26.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45709.9125</v>
+        <v>45699.76944444444</v>
       </c>
       <c r="B6" t="n">
-        <v>25.41</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45710.32013888889</v>
+        <v>45702.35833333333</v>
       </c>
       <c r="B7" t="n">
-        <v>27.99</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45711.50347222222</v>
+        <v>45709.31458333333</v>
       </c>
       <c r="B8" t="n">
-        <v>26.9</v>
+        <v>30.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45711.75069444445</v>
+        <v>45710.54305555556</v>
       </c>
       <c r="B9" t="n">
-        <v>25.43</v>
+        <v>26.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45715.97152777778</v>
+        <v>45713.82361111111</v>
       </c>
       <c r="B10" t="n">
-        <v>24.91</v>
+        <v>25.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45716.13888888889</v>
+        <v>45722.52013888889</v>
       </c>
       <c r="B11" t="n">
-        <v>30.31</v>
+        <v>27.9</v>
       </c>
     </row>
   </sheetData>

--- a/Post/Index/data/Sample - Air Temperature.xlsx
+++ b/Post/Index/data/Sample - Air Temperature.xlsx
@@ -453,82 +453,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45689.95347222222</v>
+        <v>45694.49027777778</v>
       </c>
       <c r="B2" t="n">
-        <v>25.69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45693.47569444445</v>
+        <v>45695.05555555555</v>
       </c>
       <c r="B3" t="n">
-        <v>29.19</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45693.99722222222</v>
+        <v>45696.50763888889</v>
       </c>
       <c r="B4" t="n">
-        <v>26.2</v>
+        <v>27.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45695.46805555555</v>
+        <v>45697.61527777778</v>
       </c>
       <c r="B5" t="n">
-        <v>26.51</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45699.76944444444</v>
+        <v>45700.90347222222</v>
       </c>
       <c r="B6" t="n">
-        <v>25.2</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45702.35833333333</v>
+        <v>45701.41736111111</v>
       </c>
       <c r="B7" t="n">
-        <v>31.4</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45709.31458333333</v>
+        <v>45705.8375</v>
       </c>
       <c r="B8" t="n">
-        <v>30.31</v>
+        <v>25.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45710.54305555556</v>
+        <v>45709.98125</v>
       </c>
       <c r="B9" t="n">
-        <v>26.08</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45713.82361111111</v>
+        <v>45711.92152777778</v>
       </c>
       <c r="B10" t="n">
-        <v>25.83</v>
+        <v>24.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45722.52013888889</v>
+        <v>45712.14236111111</v>
       </c>
       <c r="B11" t="n">
-        <v>27.9</v>
+        <v>29.92</v>
       </c>
     </row>
   </sheetData>
